--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44419,6 +44419,41 @@
         </is>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44454,6 +44454,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44491,6 +44491,41 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44526,6 +44526,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44563,6 +44563,43 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44600,6 +44600,43 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44637,6 +44637,43 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44674,6 +44674,43 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44711,6 +44711,78 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44783,6 +44783,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44820,6 +44820,41 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44855,6 +44855,41 @@
         <v>1200</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>21900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44890,6 +44890,78 @@
         <v>21900</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44962,6 +44962,43 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44999,6 +44999,43 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2103"/>
+  <dimension ref="A1:I2104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75731,6 +75731,43 @@
         </is>
       </c>
     </row>
+    <row r="2104">
+      <c r="A2104" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2104" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D2104" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E2104" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F2104" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G2104" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H2104" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I2104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2104"/>
+  <dimension ref="A1:I2105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75768,6 +75768,43 @@
         </is>
       </c>
     </row>
+    <row r="2105">
+      <c r="A2105" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2105" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D2105" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E2105" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F2105" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G2105" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H2105" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I2105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2105"/>
+  <dimension ref="A1:I2106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75805,6 +75805,43 @@
         </is>
       </c>
     </row>
+    <row r="2106">
+      <c r="A2106" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2106" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D2106" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E2106" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F2106" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G2106" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H2106" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I2106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2106"/>
+  <dimension ref="A1:I2107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75842,6 +75842,43 @@
         </is>
       </c>
     </row>
+    <row r="2107">
+      <c r="A2107" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2107" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D2107" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E2107" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F2107" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G2107" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H2107" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I2107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2107"/>
+  <dimension ref="A1:I2108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75879,6 +75879,43 @@
         </is>
       </c>
     </row>
+    <row r="2108">
+      <c r="A2108" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2108" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D2108" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E2108" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F2108" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G2108" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H2108" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I2108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2108"/>
+  <dimension ref="A1:I2109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75916,6 +75916,43 @@
         </is>
       </c>
     </row>
+    <row r="2109">
+      <c r="A2109" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2109" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D2109" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E2109" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F2109" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G2109" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H2109" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I2109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2109"/>
+  <dimension ref="A1:I2110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75953,6 +75953,43 @@
         </is>
       </c>
     </row>
+    <row r="2110">
+      <c r="A2110" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2110" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D2110" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E2110" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F2110" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G2110" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H2110" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I2110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2110"/>
+  <dimension ref="A1:I2111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75990,6 +75990,41 @@
         </is>
       </c>
     </row>
+    <row r="2111">
+      <c r="A2111" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2111" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2111" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D2111" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E2111" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F2111" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G2111" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H2111" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I2111" t="n">
+        <v>8400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2111"/>
+  <dimension ref="A1:I2112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76025,6 +76025,41 @@
         <v>8400</v>
       </c>
     </row>
+    <row r="2112">
+      <c r="A2112" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2112" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2112" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D2112" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E2112" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F2112" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G2112" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H2112" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I2112" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2112"/>
+  <dimension ref="A1:I2113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76060,6 +76060,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="2113">
+      <c r="A2113" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2113" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D2113" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E2113" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F2113" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G2113" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H2113" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I2113" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2113"/>
+  <dimension ref="A1:I2114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76095,6 +76095,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2114">
+      <c r="A2114" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2114" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2114" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D2114" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E2114" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F2114" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G2114" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H2114" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I2114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2114"/>
+  <dimension ref="A1:I2115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76132,6 +76132,43 @@
         </is>
       </c>
     </row>
+    <row r="2115">
+      <c r="A2115" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2115" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2115" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D2115" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E2115" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F2115" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G2115" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H2115" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I2115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2115"/>
+  <dimension ref="A1:I2116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76169,6 +76169,41 @@
         </is>
       </c>
     </row>
+    <row r="2116">
+      <c r="A2116" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2116" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D2116" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E2116" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F2116" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G2116" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H2116" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I2116" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9369.xlsx
+++ b/data/9369.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2116"/>
+  <dimension ref="A1:I2117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76204,6 +76204,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="2117">
+      <c r="A2117" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2117" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2117" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D2117" t="inlineStr">
+        <is>
+          <t>TGL</t>
+        </is>
+      </c>
+      <c r="E2117" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F2117" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G2117" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H2117" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I2117" t="n">
+        <v>60000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
